--- a/krilov/files/18/18var17.xlsx
+++ b/krilov/files/18/18var17.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sr/Yandex.Disk.localized/Компьютер/Различные работы/Сборник/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60D6BC44-88D4-EA4E-9DAA-91E30FCA1B56}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" xr2:uid="{86B6F546-B461-3743-9AEA-019860B20F26}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23256" windowHeight="13176"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +19,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -43,12 +37,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="9">
@@ -143,7 +143,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -154,6 +154,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -214,7 +222,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -266,7 +274,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -460,23 +468,23 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E6C034E-CBB0-4F4D-8FDB-6BF9B75F6319}">
-  <dimension ref="A1:P17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18:P33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:16" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" ht="16.2" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1">
         <v>18</v>
       </c>
@@ -526,7 +534,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>16</v>
       </c>
@@ -576,7 +584,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <v>24</v>
       </c>
@@ -626,7 +634,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>30</v>
       </c>
@@ -676,7 +684,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>11</v>
       </c>
@@ -726,7 +734,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>19</v>
       </c>
@@ -776,7 +784,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>20</v>
       </c>
@@ -826,7 +834,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>16</v>
       </c>
@@ -876,7 +884,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>17</v>
       </c>
@@ -926,7 +934,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>30</v>
       </c>
@@ -976,7 +984,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>27</v>
       </c>
@@ -1026,7 +1034,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <v>13</v>
       </c>
@@ -1076,7 +1084,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
         <v>13</v>
       </c>
@@ -1126,7 +1134,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
         <v>14</v>
       </c>
@@ -1176,7 +1184,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15" s="4">
         <v>26</v>
       </c>
@@ -1226,7 +1234,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="7">
         <v>13</v>
       </c>
@@ -1276,7 +1284,1064 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="17" spans="1:16" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="18" spans="1:16" ht="16.2" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="10">
+        <f>A1</f>
+        <v>18</v>
+      </c>
+      <c r="B18" s="11">
+        <f>A18+B1</f>
+        <v>40</v>
+      </c>
+      <c r="C18" s="11">
+        <f t="shared" ref="C18:P18" si="0">B18+C1</f>
+        <v>50</v>
+      </c>
+      <c r="D18" s="11">
+        <f t="shared" si="0"/>
+        <v>71</v>
+      </c>
+      <c r="E18" s="11">
+        <f t="shared" si="0"/>
+        <v>85</v>
+      </c>
+      <c r="F18" s="11">
+        <f t="shared" si="0"/>
+        <v>97</v>
+      </c>
+      <c r="G18" s="11">
+        <f t="shared" si="0"/>
+        <v>112</v>
+      </c>
+      <c r="H18" s="11">
+        <f t="shared" si="0"/>
+        <v>136</v>
+      </c>
+      <c r="I18" s="11">
+        <f t="shared" si="0"/>
+        <v>148</v>
+      </c>
+      <c r="J18" s="11">
+        <f t="shared" si="0"/>
+        <v>163</v>
+      </c>
+      <c r="K18" s="11">
+        <f t="shared" si="0"/>
+        <v>185</v>
+      </c>
+      <c r="L18" s="11">
+        <f t="shared" si="0"/>
+        <v>215</v>
+      </c>
+      <c r="M18" s="11">
+        <f t="shared" si="0"/>
+        <v>231</v>
+      </c>
+      <c r="N18" s="11">
+        <f t="shared" si="0"/>
+        <v>244</v>
+      </c>
+      <c r="O18" s="11">
+        <f t="shared" si="0"/>
+        <v>263</v>
+      </c>
+      <c r="P18" s="11">
+        <f t="shared" si="0"/>
+        <v>276</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A19" s="12">
+        <f>A18+A2</f>
+        <v>34</v>
+      </c>
+      <c r="B19" s="13">
+        <f>MAX(A19,B18)+B2</f>
+        <v>57</v>
+      </c>
+      <c r="C19" s="13">
+        <f>MAX(B19,C18)+C2</f>
+        <v>87</v>
+      </c>
+      <c r="D19" s="13">
+        <f>MAX(C19,D18)+D2</f>
+        <v>109</v>
+      </c>
+      <c r="E19" s="13">
+        <f>MAX(D19,E18)+E2</f>
+        <v>120</v>
+      </c>
+      <c r="F19" s="13">
+        <f>MAX(E19,F18)+F2</f>
+        <v>139</v>
+      </c>
+      <c r="G19" s="13">
+        <f>MAX(F19,G18)+G2</f>
+        <v>169</v>
+      </c>
+      <c r="H19" s="13">
+        <f>MAX(G19,H18)+H2</f>
+        <v>192</v>
+      </c>
+      <c r="I19" s="13">
+        <f>MAX(H19,I18)+I2</f>
+        <v>222</v>
+      </c>
+      <c r="J19" s="13">
+        <f>MAX(I19,J18)+J2</f>
+        <v>249</v>
+      </c>
+      <c r="K19" s="13">
+        <f>MAX(J19,K18)+K2</f>
+        <v>266</v>
+      </c>
+      <c r="L19" s="13">
+        <f>MAX(K19,L18)+L2</f>
+        <v>286</v>
+      </c>
+      <c r="M19" s="13">
+        <f>MAX(L19,M18)+M2</f>
+        <v>313</v>
+      </c>
+      <c r="N19" s="13">
+        <f>MAX(M19,N18)+N2</f>
+        <v>334</v>
+      </c>
+      <c r="O19" s="13">
+        <f>MAX(N19,O18)+O2</f>
+        <v>364</v>
+      </c>
+      <c r="P19" s="14">
+        <f>MAX(O19,P18)+P2</f>
+        <v>382</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A20" s="12">
+        <f t="shared" ref="A20:A33" si="1">A19+A3</f>
+        <v>58</v>
+      </c>
+      <c r="B20" s="13">
+        <f>MAX(A20,B19)+B3</f>
+        <v>72</v>
+      </c>
+      <c r="C20" s="13">
+        <f>MAX(B20,C19)+C3</f>
+        <v>106</v>
+      </c>
+      <c r="D20" s="13">
+        <f>MAX(C20,D19)+D3</f>
+        <v>132</v>
+      </c>
+      <c r="E20" s="13">
+        <f>MAX(D20,E19)+E3</f>
+        <v>151</v>
+      </c>
+      <c r="F20" s="13">
+        <f>MAX(E20,F19)+F3</f>
+        <v>179</v>
+      </c>
+      <c r="G20" s="13">
+        <f>MAX(F20,G19)+G3</f>
+        <v>201</v>
+      </c>
+      <c r="H20" s="13">
+        <f>MAX(G20,H19)+H3</f>
+        <v>219</v>
+      </c>
+      <c r="I20" s="13">
+        <f>MAX(H20,I19)+I3</f>
+        <v>243</v>
+      </c>
+      <c r="J20" s="13">
+        <f>MAX(I20,J19)+J3</f>
+        <v>271</v>
+      </c>
+      <c r="K20" s="13">
+        <f>MAX(J20,K19)+K3</f>
+        <v>284</v>
+      </c>
+      <c r="L20" s="13">
+        <f>MAX(K20,L19)+L3</f>
+        <v>310</v>
+      </c>
+      <c r="M20" s="13">
+        <f>MAX(L20,M19)+M3</f>
+        <v>339</v>
+      </c>
+      <c r="N20" s="13">
+        <f>MAX(M20,N19)+N3</f>
+        <v>357</v>
+      </c>
+      <c r="O20" s="13">
+        <f>MAX(N20,O19)+O3</f>
+        <v>386</v>
+      </c>
+      <c r="P20" s="14">
+        <f>MAX(O20,P19)+P3</f>
+        <v>405</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A21" s="12">
+        <f t="shared" si="1"/>
+        <v>88</v>
+      </c>
+      <c r="B21" s="13">
+        <f>MAX(A21,B20)+B4</f>
+        <v>100</v>
+      </c>
+      <c r="C21" s="13">
+        <f>MAX(B21,C20)+C4</f>
+        <v>129</v>
+      </c>
+      <c r="D21" s="13">
+        <f>MAX(C21,D20)+D4</f>
+        <v>143</v>
+      </c>
+      <c r="E21" s="14">
+        <f>MAX(D21,E20)+E4</f>
+        <v>175</v>
+      </c>
+      <c r="F21" s="13">
+        <f>F20+F4</f>
+        <v>196</v>
+      </c>
+      <c r="G21" s="13">
+        <f>MAX(F21,G20)+G4</f>
+        <v>220</v>
+      </c>
+      <c r="H21" s="13">
+        <f>MAX(G21,H20)+H4</f>
+        <v>241</v>
+      </c>
+      <c r="I21" s="13">
+        <f>MAX(H21,I20)+I4</f>
+        <v>265</v>
+      </c>
+      <c r="J21" s="13">
+        <f>MAX(I21,J20)+J4</f>
+        <v>288</v>
+      </c>
+      <c r="K21" s="13">
+        <f>MAX(J21,K20)+K4</f>
+        <v>304</v>
+      </c>
+      <c r="L21" s="13">
+        <f>MAX(K21,L20)+L4</f>
+        <v>324</v>
+      </c>
+      <c r="M21" s="13">
+        <f>MAX(L21,M20)+M4</f>
+        <v>359</v>
+      </c>
+      <c r="N21" s="13">
+        <f>MAX(M21,N20)+N4</f>
+        <v>379</v>
+      </c>
+      <c r="O21" s="13">
+        <f>MAX(N21,O20)+O4</f>
+        <v>404</v>
+      </c>
+      <c r="P21" s="14">
+        <f>MAX(O21,P20)+P4</f>
+        <v>415</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A22" s="12">
+        <f t="shared" si="1"/>
+        <v>99</v>
+      </c>
+      <c r="B22" s="13">
+        <f>MAX(A22,B21)+B5</f>
+        <v>118</v>
+      </c>
+      <c r="C22" s="13">
+        <f>MAX(B22,C21)+C5</f>
+        <v>141</v>
+      </c>
+      <c r="D22" s="13">
+        <f>MAX(C22,D21)+D5</f>
+        <v>167</v>
+      </c>
+      <c r="E22" s="14">
+        <f>MAX(D22,E21)+E5</f>
+        <v>193</v>
+      </c>
+      <c r="F22" s="13">
+        <f t="shared" ref="F22:F28" si="2">F21+F5</f>
+        <v>217</v>
+      </c>
+      <c r="G22" s="13">
+        <f>MAX(F22,G21)+G5</f>
+        <v>246</v>
+      </c>
+      <c r="H22" s="13">
+        <f>MAX(G22,H21)+H5</f>
+        <v>256</v>
+      </c>
+      <c r="I22" s="13">
+        <f>MAX(H22,I21)+I5</f>
+        <v>282</v>
+      </c>
+      <c r="J22" s="13">
+        <f>MAX(I22,J21)+J5</f>
+        <v>309</v>
+      </c>
+      <c r="K22" s="13">
+        <f>MAX(J22,K21)+K5</f>
+        <v>328</v>
+      </c>
+      <c r="L22" s="13">
+        <f>MAX(K22,L21)+L5</f>
+        <v>350</v>
+      </c>
+      <c r="M22" s="13">
+        <f>MAX(L22,M21)+M5</f>
+        <v>386</v>
+      </c>
+      <c r="N22" s="13">
+        <f>MAX(M22,N21)+N5</f>
+        <v>409</v>
+      </c>
+      <c r="O22" s="13">
+        <f>MAX(N22,O21)+O5</f>
+        <v>422</v>
+      </c>
+      <c r="P22" s="14">
+        <f>MAX(O22,P21)+P5</f>
+        <v>452</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A23" s="12">
+        <f t="shared" si="1"/>
+        <v>118</v>
+      </c>
+      <c r="B23" s="13">
+        <f>MAX(A23,B22)+B6</f>
+        <v>143</v>
+      </c>
+      <c r="C23" s="13">
+        <f>MAX(B23,C22)+C6</f>
+        <v>153</v>
+      </c>
+      <c r="D23" s="13">
+        <f>MAX(C23,D22)+D6</f>
+        <v>178</v>
+      </c>
+      <c r="E23" s="14">
+        <f>MAX(D23,E22)+E6</f>
+        <v>220</v>
+      </c>
+      <c r="F23" s="13">
+        <f t="shared" si="2"/>
+        <v>228</v>
+      </c>
+      <c r="G23" s="13">
+        <f>MAX(F23,G22)+G6</f>
+        <v>258</v>
+      </c>
+      <c r="H23" s="13">
+        <f>MAX(G23,H22)+H6</f>
+        <v>268</v>
+      </c>
+      <c r="I23" s="13">
+        <f>MAX(H23,I22)+I6</f>
+        <v>307</v>
+      </c>
+      <c r="J23" s="13">
+        <f>MAX(I23,J22)+J6</f>
+        <v>319</v>
+      </c>
+      <c r="K23" s="13">
+        <f>MAX(J23,K22)+K6</f>
+        <v>351</v>
+      </c>
+      <c r="L23" s="13">
+        <f>MAX(K23,L22)+L6</f>
+        <v>369</v>
+      </c>
+      <c r="M23" s="13">
+        <f>MAX(L23,M22)+M6</f>
+        <v>397</v>
+      </c>
+      <c r="N23" s="13">
+        <f>MAX(M23,N22)+N6</f>
+        <v>433</v>
+      </c>
+      <c r="O23" s="13">
+        <f>MAX(N23,O22)+O6</f>
+        <v>446</v>
+      </c>
+      <c r="P23" s="14">
+        <f>MAX(O23,P22)+P6</f>
+        <v>481</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A24" s="12">
+        <f t="shared" si="1"/>
+        <v>138</v>
+      </c>
+      <c r="B24" s="13">
+        <f>MAX(A24,B23)+B7</f>
+        <v>167</v>
+      </c>
+      <c r="C24" s="13">
+        <f>MAX(B24,C23)+C7</f>
+        <v>187</v>
+      </c>
+      <c r="D24" s="13">
+        <f>MAX(C24,D23)+D7</f>
+        <v>198</v>
+      </c>
+      <c r="E24" s="14">
+        <f>MAX(D24,E23)+E7</f>
+        <v>233</v>
+      </c>
+      <c r="F24" s="13">
+        <f t="shared" si="2"/>
+        <v>249</v>
+      </c>
+      <c r="G24" s="13">
+        <f>MAX(F24,G23)+G7</f>
+        <v>283</v>
+      </c>
+      <c r="H24" s="13">
+        <f>MAX(G24,H23)+H7</f>
+        <v>306</v>
+      </c>
+      <c r="I24" s="13">
+        <f>MAX(H24,I23)+I7</f>
+        <v>336</v>
+      </c>
+      <c r="J24" s="13">
+        <f>MAX(I24,J23)+J7</f>
+        <v>355</v>
+      </c>
+      <c r="K24" s="13">
+        <f>MAX(J24,K23)+K7</f>
+        <v>375</v>
+      </c>
+      <c r="L24" s="13">
+        <f>MAX(K24,L23)+L7</f>
+        <v>385</v>
+      </c>
+      <c r="M24" s="13">
+        <f>MAX(L24,M23)+M7</f>
+        <v>410</v>
+      </c>
+      <c r="N24" s="13">
+        <f>MAX(M24,N23)+N7</f>
+        <v>461</v>
+      </c>
+      <c r="O24" s="13">
+        <f>MAX(N24,O23)+O7</f>
+        <v>489</v>
+      </c>
+      <c r="P24" s="14">
+        <f>MAX(O24,P23)+P7</f>
+        <v>511</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A25" s="12">
+        <f t="shared" si="1"/>
+        <v>154</v>
+      </c>
+      <c r="B25" s="13">
+        <f>MAX(A25,B24)+B8</f>
+        <v>188</v>
+      </c>
+      <c r="C25" s="13">
+        <f>MAX(B25,C24)+C8</f>
+        <v>214</v>
+      </c>
+      <c r="D25" s="13">
+        <f>MAX(C25,D24)+D8</f>
+        <v>230</v>
+      </c>
+      <c r="E25" s="14">
+        <f>MAX(D25,E24)+E8</f>
+        <v>246</v>
+      </c>
+      <c r="F25" s="13">
+        <f t="shared" si="2"/>
+        <v>262</v>
+      </c>
+      <c r="G25" s="13">
+        <f>MAX(F25,G24)+G8</f>
+        <v>294</v>
+      </c>
+      <c r="H25" s="13">
+        <f>MAX(G25,H24)+H8</f>
+        <v>322</v>
+      </c>
+      <c r="I25" s="13">
+        <f>MAX(H25,I24)+I8</f>
+        <v>361</v>
+      </c>
+      <c r="J25" s="13">
+        <f>MAX(I25,J24)+J8</f>
+        <v>386</v>
+      </c>
+      <c r="K25" s="15">
+        <f>MAX(J25,K24)+K8</f>
+        <v>416</v>
+      </c>
+      <c r="L25" s="13">
+        <f>MAX(K25,L24)+L8</f>
+        <v>438</v>
+      </c>
+      <c r="M25" s="13">
+        <f>MAX(L25,M24)+M8</f>
+        <v>459</v>
+      </c>
+      <c r="N25" s="13">
+        <f>MAX(M25,N24)+N8</f>
+        <v>471</v>
+      </c>
+      <c r="O25" s="13">
+        <f>MAX(N25,O24)+O8</f>
+        <v>499</v>
+      </c>
+      <c r="P25" s="14">
+        <f>MAX(O25,P24)+P8</f>
+        <v>523</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A26" s="12">
+        <f t="shared" si="1"/>
+        <v>171</v>
+      </c>
+      <c r="B26" s="13">
+        <f>MAX(A26,B25)+B9</f>
+        <v>218</v>
+      </c>
+      <c r="C26" s="13">
+        <f>MAX(B26,C25)+C9</f>
+        <v>234</v>
+      </c>
+      <c r="D26" s="13">
+        <f>MAX(C26,D25)+D9</f>
+        <v>248</v>
+      </c>
+      <c r="E26" s="14">
+        <f>MAX(D26,E25)+E9</f>
+        <v>259</v>
+      </c>
+      <c r="F26" s="13">
+        <f t="shared" si="2"/>
+        <v>280</v>
+      </c>
+      <c r="G26" s="13">
+        <f>MAX(F26,G25)+G9</f>
+        <v>315</v>
+      </c>
+      <c r="H26" s="13">
+        <f>MAX(G26,H25)+H9</f>
+        <v>344</v>
+      </c>
+      <c r="I26" s="13">
+        <f>MAX(H26,I25)+I9</f>
+        <v>380</v>
+      </c>
+      <c r="J26" s="13">
+        <f>MAX(I26,J25)+J9</f>
+        <v>407</v>
+      </c>
+      <c r="K26" s="13">
+        <f>MAX(J26,K25)+K9</f>
+        <v>435</v>
+      </c>
+      <c r="L26" s="13">
+        <f>MAX(K26,L25)+L9</f>
+        <v>451</v>
+      </c>
+      <c r="M26" s="13">
+        <f>MAX(L26,M25)+M9</f>
+        <v>474</v>
+      </c>
+      <c r="N26" s="13">
+        <f>MAX(M26,N25)+N9</f>
+        <v>503</v>
+      </c>
+      <c r="O26" s="13">
+        <f>MAX(N26,O25)+O9</f>
+        <v>517</v>
+      </c>
+      <c r="P26" s="14">
+        <f>MAX(O26,P25)+P9</f>
+        <v>550</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A27" s="12">
+        <f t="shared" si="1"/>
+        <v>201</v>
+      </c>
+      <c r="B27" s="13">
+        <f>MAX(A27,B26)+B10</f>
+        <v>234</v>
+      </c>
+      <c r="C27" s="13">
+        <f>MAX(B27,C26)+C10</f>
+        <v>257</v>
+      </c>
+      <c r="D27" s="13">
+        <f>MAX(C27,D26)+D10</f>
+        <v>273</v>
+      </c>
+      <c r="E27" s="14">
+        <f>MAX(D27,E26)+E10</f>
+        <v>284</v>
+      </c>
+      <c r="F27" s="13">
+        <f t="shared" si="2"/>
+        <v>305</v>
+      </c>
+      <c r="G27" s="13">
+        <f>MAX(F27,G26)+G10</f>
+        <v>335</v>
+      </c>
+      <c r="H27" s="13">
+        <f>MAX(G27,H26)+H10</f>
+        <v>366</v>
+      </c>
+      <c r="I27" s="13">
+        <f>MAX(H27,I26)+I10</f>
+        <v>404</v>
+      </c>
+      <c r="J27" s="13">
+        <f>MAX(I27,J26)+J10</f>
+        <v>433</v>
+      </c>
+      <c r="K27" s="13">
+        <f>MAX(J27,K26)+K10</f>
+        <v>458</v>
+      </c>
+      <c r="L27" s="13">
+        <f>MAX(K27,L26)+L10</f>
+        <v>472</v>
+      </c>
+      <c r="M27" s="13">
+        <f>MAX(L27,M26)+M10</f>
+        <v>493</v>
+      </c>
+      <c r="N27" s="13">
+        <f>MAX(M27,N26)+N10</f>
+        <v>528</v>
+      </c>
+      <c r="O27" s="13">
+        <f>MAX(N27,O26)+O10</f>
+        <v>558</v>
+      </c>
+      <c r="P27" s="14">
+        <f>MAX(O27,P26)+P10</f>
+        <v>574</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A28" s="12">
+        <f t="shared" si="1"/>
+        <v>228</v>
+      </c>
+      <c r="B28" s="13">
+        <f>MAX(A28,B27)+B11</f>
+        <v>246</v>
+      </c>
+      <c r="C28" s="13">
+        <f>MAX(B28,C27)+C11</f>
+        <v>281</v>
+      </c>
+      <c r="D28" s="13">
+        <f>MAX(C28,D27)+D11</f>
+        <v>292</v>
+      </c>
+      <c r="E28" s="14">
+        <f>MAX(D28,E27)+E11</f>
+        <v>312</v>
+      </c>
+      <c r="F28" s="13">
+        <f t="shared" si="2"/>
+        <v>326</v>
+      </c>
+      <c r="G28" s="13">
+        <f>MAX(F28,G27)+G11</f>
+        <v>364</v>
+      </c>
+      <c r="H28" s="13">
+        <f>MAX(G28,H27)+H11</f>
+        <v>392</v>
+      </c>
+      <c r="I28" s="13">
+        <f>MAX(H28,I27)+I11</f>
+        <v>420</v>
+      </c>
+      <c r="J28" s="13">
+        <f>MAX(I28,J27)+J11</f>
+        <v>452</v>
+      </c>
+      <c r="K28" s="13">
+        <f>MAX(J28,K27)+K11</f>
+        <v>477</v>
+      </c>
+      <c r="L28" s="13">
+        <f>MAX(K28,L27)+L11</f>
+        <v>503</v>
+      </c>
+      <c r="M28" s="13">
+        <f>MAX(L28,M27)+M11</f>
+        <v>514</v>
+      </c>
+      <c r="N28" s="13">
+        <f>MAX(M28,N27)+N11</f>
+        <v>546</v>
+      </c>
+      <c r="O28" s="13">
+        <f>MAX(N28,O27)+O11</f>
+        <v>578</v>
+      </c>
+      <c r="P28" s="14">
+        <f>MAX(O28,P27)+P11</f>
+        <v>589</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A29" s="12">
+        <f t="shared" si="1"/>
+        <v>241</v>
+      </c>
+      <c r="B29" s="13">
+        <f>MAX(A29,B28)+B12</f>
+        <v>260</v>
+      </c>
+      <c r="C29" s="13">
+        <f>MAX(B29,C28)+C12</f>
+        <v>299</v>
+      </c>
+      <c r="D29" s="13">
+        <f>MAX(C29,D28)+D12</f>
+        <v>319</v>
+      </c>
+      <c r="E29" s="13">
+        <f>MAX(D29,E28)+E12</f>
+        <v>329</v>
+      </c>
+      <c r="F29" s="13">
+        <f>MAX(E29,F28)+F12</f>
+        <v>356</v>
+      </c>
+      <c r="G29" s="13">
+        <f>MAX(F29,G28)+G12</f>
+        <v>388</v>
+      </c>
+      <c r="H29" s="13">
+        <f>MAX(G29,H28)+H12</f>
+        <v>409</v>
+      </c>
+      <c r="I29" s="13">
+        <f>MAX(H29,I28)+I12</f>
+        <v>431</v>
+      </c>
+      <c r="J29" s="13">
+        <f>MAX(I29,J28)+J12</f>
+        <v>473</v>
+      </c>
+      <c r="K29" s="13">
+        <f>MAX(J29,K28)+K12</f>
+        <v>505</v>
+      </c>
+      <c r="L29" s="13">
+        <f>MAX(K29,L28)+L12</f>
+        <v>526</v>
+      </c>
+      <c r="M29" s="13">
+        <f>MAX(L29,M28)+M12</f>
+        <v>555</v>
+      </c>
+      <c r="N29" s="13">
+        <f>MAX(M29,N28)+N12</f>
+        <v>571</v>
+      </c>
+      <c r="O29" s="13">
+        <f>MAX(N29,O28)+O12</f>
+        <v>601</v>
+      </c>
+      <c r="P29" s="14">
+        <f>MAX(O29,P28)+P12</f>
+        <v>616</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A30" s="12">
+        <f t="shared" si="1"/>
+        <v>254</v>
+      </c>
+      <c r="B30" s="13">
+        <f>MAX(A30,B29)+B13</f>
+        <v>289</v>
+      </c>
+      <c r="C30" s="13">
+        <f>MAX(B30,C29)+C13</f>
+        <v>313</v>
+      </c>
+      <c r="D30" s="13">
+        <f>MAX(C30,D29)+D13</f>
+        <v>333</v>
+      </c>
+      <c r="E30" s="13">
+        <f>MAX(D30,E29)+E13</f>
+        <v>347</v>
+      </c>
+      <c r="F30" s="13">
+        <f>MAX(E30,F29)+F13</f>
+        <v>368</v>
+      </c>
+      <c r="G30" s="13">
+        <f>MAX(F30,G29)+G13</f>
+        <v>416</v>
+      </c>
+      <c r="H30" s="13">
+        <f>MAX(G30,H29)+H13</f>
+        <v>435</v>
+      </c>
+      <c r="I30" s="13">
+        <f>MAX(H30,I29)+I13</f>
+        <v>458</v>
+      </c>
+      <c r="J30" s="13">
+        <f>MAX(I30,J29)+J13</f>
+        <v>499</v>
+      </c>
+      <c r="K30" s="13">
+        <f>MAX(J30,K29)+K13</f>
+        <v>530</v>
+      </c>
+      <c r="L30" s="13">
+        <f>MAX(K30,L29)+L13</f>
+        <v>556</v>
+      </c>
+      <c r="M30" s="13">
+        <f>MAX(L30,M29)+M13</f>
+        <v>575</v>
+      </c>
+      <c r="N30" s="13">
+        <f>MAX(M30,N29)+N13</f>
+        <v>590</v>
+      </c>
+      <c r="O30" s="13">
+        <f>MAX(N30,O29)+O13</f>
+        <v>611</v>
+      </c>
+      <c r="P30" s="14">
+        <f>MAX(O30,P29)+P13</f>
+        <v>638</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A31" s="12">
+        <f t="shared" si="1"/>
+        <v>268</v>
+      </c>
+      <c r="B31" s="13">
+        <f>MAX(A31,B30)+B14</f>
+        <v>310</v>
+      </c>
+      <c r="C31" s="13">
+        <f>MAX(B31,C30)+C14</f>
+        <v>330</v>
+      </c>
+      <c r="D31" s="13">
+        <f>MAX(C31,D30)+D14</f>
+        <v>360</v>
+      </c>
+      <c r="E31" s="13">
+        <f>MAX(D31,E30)+E14</f>
+        <v>371</v>
+      </c>
+      <c r="F31" s="13">
+        <f>MAX(E31,F30)+F14</f>
+        <v>386</v>
+      </c>
+      <c r="G31" s="13">
+        <f>MAX(F31,G30)+G14</f>
+        <v>443</v>
+      </c>
+      <c r="H31" s="13">
+        <f>MAX(G31,H30)+H14</f>
+        <v>471</v>
+      </c>
+      <c r="I31" s="13">
+        <f>MAX(H31,I30)+I14</f>
+        <v>490</v>
+      </c>
+      <c r="J31" s="13">
+        <f>MAX(I31,J30)+J14</f>
+        <v>515</v>
+      </c>
+      <c r="K31" s="13">
+        <f>MAX(J31,K30)+K14</f>
+        <v>553</v>
+      </c>
+      <c r="L31" s="13">
+        <f>MAX(K31,L30)+L14</f>
+        <v>583</v>
+      </c>
+      <c r="M31" s="13">
+        <f>MAX(L31,M30)+M14</f>
+        <v>607</v>
+      </c>
+      <c r="N31" s="13">
+        <f>MAX(M31,N30)+N14</f>
+        <v>636</v>
+      </c>
+      <c r="O31" s="13">
+        <f>MAX(N31,O30)+O14</f>
+        <v>650</v>
+      </c>
+      <c r="P31" s="14">
+        <f>MAX(O31,P30)+P14</f>
+        <v>670</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A32" s="12">
+        <f t="shared" si="1"/>
+        <v>294</v>
+      </c>
+      <c r="B32" s="13">
+        <f>MAX(A32,B31)+B15</f>
+        <v>321</v>
+      </c>
+      <c r="C32" s="13">
+        <f>MAX(B32,C31)+C15</f>
+        <v>357</v>
+      </c>
+      <c r="D32" s="13">
+        <f>MAX(C32,D31)+D15</f>
+        <v>379</v>
+      </c>
+      <c r="E32" s="13">
+        <f>MAX(D32,E31)+E15</f>
+        <v>405</v>
+      </c>
+      <c r="F32" s="13">
+        <f>MAX(E32,F31)+F15</f>
+        <v>416</v>
+      </c>
+      <c r="G32" s="13">
+        <f>MAX(F32,G31)+G15</f>
+        <v>464</v>
+      </c>
+      <c r="H32" s="13">
+        <f>MAX(G32,H31)+H15</f>
+        <v>495</v>
+      </c>
+      <c r="I32" s="13">
+        <f>MAX(H32,I31)+I15</f>
+        <v>518</v>
+      </c>
+      <c r="J32" s="13">
+        <f>MAX(I32,J31)+J15</f>
+        <v>538</v>
+      </c>
+      <c r="K32" s="13">
+        <f>MAX(J32,K31)+K15</f>
+        <v>568</v>
+      </c>
+      <c r="L32" s="13">
+        <f>MAX(K32,L31)+L15</f>
+        <v>593</v>
+      </c>
+      <c r="M32" s="13">
+        <f>MAX(L32,M31)+M15</f>
+        <v>636</v>
+      </c>
+      <c r="N32" s="13">
+        <f>MAX(M32,N31)+N15</f>
+        <v>666</v>
+      </c>
+      <c r="O32" s="13">
+        <f>MAX(N32,O31)+O15</f>
+        <v>677</v>
+      </c>
+      <c r="P32" s="14">
+        <f>MAX(O32,P31)+P15</f>
+        <v>693</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="12">
+        <f t="shared" si="1"/>
+        <v>307</v>
+      </c>
+      <c r="B33" s="16">
+        <f>MAX(A33,B32)+B16</f>
+        <v>331</v>
+      </c>
+      <c r="C33" s="16">
+        <f>MAX(B33,C32)+C16</f>
+        <v>381</v>
+      </c>
+      <c r="D33" s="16">
+        <f>MAX(C33,D32)+D16</f>
+        <v>405</v>
+      </c>
+      <c r="E33" s="16">
+        <f>MAX(D33,E32)+E16</f>
+        <v>424</v>
+      </c>
+      <c r="F33" s="16">
+        <f>MAX(E33,F32)+F16</f>
+        <v>441</v>
+      </c>
+      <c r="G33" s="16">
+        <f>MAX(F33,G32)+G16</f>
+        <v>486</v>
+      </c>
+      <c r="H33" s="16">
+        <f>MAX(G33,H32)+H16</f>
+        <v>525</v>
+      </c>
+      <c r="I33" s="16">
+        <f>MAX(H33,I32)+I16</f>
+        <v>544</v>
+      </c>
+      <c r="J33" s="16">
+        <f>MAX(I33,J32)+J16</f>
+        <v>562</v>
+      </c>
+      <c r="K33" s="16">
+        <f>MAX(J33,K32)+K16</f>
+        <v>593</v>
+      </c>
+      <c r="L33" s="16">
+        <f>MAX(K33,L32)+L16</f>
+        <v>613</v>
+      </c>
+      <c r="M33" s="16">
+        <f>MAX(L33,M32)+M16</f>
+        <v>653</v>
+      </c>
+      <c r="N33" s="16">
+        <f>MAX(M33,N32)+N16</f>
+        <v>692</v>
+      </c>
+      <c r="O33" s="16">
+        <f>MAX(N33,O32)+O16</f>
+        <v>712</v>
+      </c>
+      <c r="P33" s="17">
+        <f>MAX(O33,P32)+P16</f>
+        <v>726</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" ht="16.2" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
